--- a/Financials/Yearly/HMC_YR_FIN.xlsx
+++ b/Financials/Yearly/HMC_YR_FIN.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{155DBA0D-EBE9-4E44-A621-7B299764731F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HMC" sheetId="6" r:id="rId1"/>
@@ -17,7 +18,7 @@
   <definedNames>
     <definedName name="Ticker">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511" calcMode="manual"/>
+  <calcPr calcId="152511" calcMode="manual" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -303,9 +304,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +348,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -444,6 +445,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -479,6 +497,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -654,32 +689,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A5:K102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="10" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="11" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
@@ -706,88 +741,88 @@
       </c>
       <c r="K7" s="2"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>136253400</v>
+        <v>138864800</v>
       </c>
       <c r="E8" s="3">
-        <v>124172900</v>
+        <v>126552800</v>
       </c>
       <c r="F8" s="3">
-        <v>129512200</v>
+        <v>131994400</v>
       </c>
       <c r="G8" s="3">
-        <v>118220200</v>
+        <v>120486000</v>
       </c>
       <c r="H8" s="3">
-        <v>110929000</v>
+        <v>113055100</v>
       </c>
       <c r="I8" s="3">
-        <v>87617400</v>
+        <v>89296600</v>
       </c>
       <c r="J8" s="3">
-        <v>70499600</v>
+        <v>71850800</v>
       </c>
       <c r="K8" s="3"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>106445200</v>
+        <v>108485300</v>
       </c>
       <c r="E9" s="3">
-        <v>96380100</v>
+        <v>98227300</v>
       </c>
       <c r="F9" s="3">
-        <v>100518400</v>
+        <v>102444900</v>
       </c>
       <c r="G9" s="3">
-        <v>91634100</v>
+        <v>93390300</v>
       </c>
       <c r="H9" s="3">
-        <v>85068200</v>
+        <v>86698600</v>
       </c>
       <c r="I9" s="3">
-        <v>65151600</v>
+        <v>66400300</v>
       </c>
       <c r="J9" s="3">
-        <v>52507100</v>
+        <v>53513500</v>
       </c>
       <c r="K9" s="3"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>29808200</v>
+        <v>30379500</v>
       </c>
       <c r="E10" s="3">
-        <v>27792800</v>
+        <v>28325500</v>
       </c>
       <c r="F10" s="3">
-        <v>28993800</v>
+        <v>29549500</v>
       </c>
       <c r="G10" s="3">
-        <v>26586200</v>
+        <v>27095700</v>
       </c>
       <c r="H10" s="3">
-        <v>25860800</v>
+        <v>26356400</v>
       </c>
       <c r="I10" s="3">
-        <v>22465800</v>
+        <v>22896400</v>
       </c>
       <c r="J10" s="3">
-        <v>17992500</v>
+        <v>18337300</v>
       </c>
       <c r="K10" s="3"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -800,34 +835,34 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>6669000</v>
+        <v>6796800</v>
       </c>
       <c r="E12" s="3">
-        <v>6133000</v>
+        <v>6250500</v>
       </c>
       <c r="F12" s="3">
-        <v>5823200</v>
+        <v>5934800</v>
       </c>
       <c r="G12" s="3">
-        <v>5376700</v>
+        <v>5479700</v>
       </c>
       <c r="H12" s="3">
-        <v>5307600</v>
+        <v>5409300</v>
       </c>
       <c r="I12" s="3">
-        <v>4969600</v>
+        <v>5064800</v>
       </c>
       <c r="J12" s="3">
-        <v>4610800</v>
+        <v>4699200</v>
       </c>
       <c r="K12" s="3"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -854,7 +889,7 @@
       </c>
       <c r="K13" s="3"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -881,7 +916,7 @@
       </c>
       <c r="K14" s="3"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -908,7 +943,7 @@
       </c>
       <c r="K15" s="3"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -918,61 +953,61 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
     </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>128859700</v>
+        <v>131329400</v>
       </c>
       <c r="E17" s="3">
-        <v>116715800</v>
+        <v>118952700</v>
       </c>
       <c r="F17" s="3">
-        <v>125047300</v>
+        <v>127443900</v>
       </c>
       <c r="G17" s="3">
-        <v>112272000</v>
+        <v>114423800</v>
       </c>
       <c r="H17" s="3">
-        <v>103621400</v>
+        <v>105607300</v>
       </c>
       <c r="I17" s="3">
-        <v>82784900</v>
+        <v>84371600</v>
       </c>
       <c r="J17" s="3">
-        <v>68447400</v>
+        <v>69759200</v>
       </c>
       <c r="K17" s="3"/>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>7393700</v>
+        <v>7535400</v>
       </c>
       <c r="E18" s="3">
-        <v>7457100</v>
+        <v>7600000</v>
       </c>
       <c r="F18" s="3">
-        <v>4464900</v>
+        <v>4550500</v>
       </c>
       <c r="G18" s="3">
-        <v>5948200</v>
+        <v>6062300</v>
       </c>
       <c r="H18" s="3">
-        <v>7307700</v>
+        <v>7447700</v>
       </c>
       <c r="I18" s="3">
-        <v>4832500</v>
+        <v>4925100</v>
       </c>
       <c r="J18" s="3">
-        <v>2052200</v>
+        <v>2091500</v>
       </c>
       <c r="K18" s="3"/>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -985,142 +1020,142 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
     </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>2611200</v>
+        <v>2661200</v>
       </c>
       <c r="E20" s="3">
-        <v>1585500</v>
+        <v>1615900</v>
       </c>
       <c r="F20" s="3">
-        <v>1332500</v>
+        <v>1358000</v>
       </c>
       <c r="G20" s="3">
-        <v>1364500</v>
+        <v>1390600</v>
       </c>
       <c r="H20" s="3">
-        <v>1089600</v>
+        <v>1110500</v>
       </c>
       <c r="I20" s="3">
-        <v>-388200</v>
+        <v>-395600</v>
       </c>
       <c r="J20" s="3">
-        <v>323000</v>
+        <v>329200</v>
       </c>
       <c r="K20" s="3"/>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>16330000</v>
+        <v>16650100</v>
       </c>
       <c r="E21" s="3">
-        <v>15023900</v>
+        <v>15318600</v>
       </c>
       <c r="F21" s="3">
-        <v>11657900</v>
+        <v>11888000</v>
       </c>
       <c r="G21" s="3">
-        <v>12858500</v>
+        <v>13111200</v>
       </c>
       <c r="H21" s="3">
-        <v>13614000</v>
+        <v>13880800</v>
       </c>
       <c r="I21" s="3">
-        <v>9681800</v>
+        <v>9873200</v>
       </c>
       <c r="J21" s="3">
-        <v>7296900</v>
+        <v>7442300</v>
       </c>
       <c r="K21" s="3"/>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>115000</v>
+        <v>117200</v>
       </c>
       <c r="E22" s="3">
-        <v>110600</v>
+        <v>112700</v>
       </c>
       <c r="F22" s="3">
-        <v>161000</v>
+        <v>164000</v>
       </c>
       <c r="G22" s="3">
-        <v>161400</v>
+        <v>164500</v>
       </c>
       <c r="H22" s="3">
-        <v>113600</v>
+        <v>115700</v>
       </c>
       <c r="I22" s="3">
-        <v>107800</v>
+        <v>109900</v>
       </c>
       <c r="J22" s="3">
-        <v>92100</v>
+        <v>93800</v>
       </c>
       <c r="K22" s="3"/>
     </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>9889800</v>
+        <v>10079400</v>
       </c>
       <c r="E23" s="3">
-        <v>8932000</v>
+        <v>9103200</v>
       </c>
       <c r="F23" s="3">
-        <v>5636400</v>
+        <v>5744500</v>
       </c>
       <c r="G23" s="3">
-        <v>7151300</v>
+        <v>7288400</v>
       </c>
       <c r="H23" s="3">
-        <v>8283700</v>
+        <v>8442500</v>
       </c>
       <c r="I23" s="3">
-        <v>4336500</v>
+        <v>4419600</v>
       </c>
       <c r="J23" s="3">
-        <v>2283200</v>
+        <v>2326900</v>
       </c>
       <c r="K23" s="3"/>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>-121200</v>
+        <v>-123500</v>
       </c>
       <c r="E24" s="3">
-        <v>2905700</v>
+        <v>2961400</v>
       </c>
       <c r="F24" s="3">
-        <v>2032000</v>
+        <v>2071000</v>
       </c>
       <c r="G24" s="3">
-        <v>2174400</v>
+        <v>2216100</v>
       </c>
       <c r="H24" s="3">
-        <v>2377100</v>
+        <v>2422600</v>
       </c>
       <c r="I24" s="3">
-        <v>1587500</v>
+        <v>1617900</v>
       </c>
       <c r="J24" s="3">
-        <v>1204000</v>
+        <v>1227000</v>
       </c>
       <c r="K24" s="3"/>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1147,61 +1182,61 @@
       </c>
       <c r="K25" s="3"/>
     </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>10011000</v>
+        <v>10202900</v>
       </c>
       <c r="E26" s="3">
-        <v>6026200</v>
+        <v>6141700</v>
       </c>
       <c r="F26" s="3">
-        <v>3604400</v>
+        <v>3673500</v>
       </c>
       <c r="G26" s="3">
-        <v>4976900</v>
+        <v>5072300</v>
       </c>
       <c r="H26" s="3">
-        <v>5906600</v>
+        <v>6019800</v>
       </c>
       <c r="I26" s="3">
-        <v>2748900</v>
+        <v>2801600</v>
       </c>
       <c r="J26" s="3">
-        <v>1079200</v>
+        <v>1099900</v>
       </c>
       <c r="K26" s="3"/>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>9396300</v>
+        <v>9576400</v>
       </c>
       <c r="E27" s="3">
-        <v>5469000</v>
+        <v>5573800</v>
       </c>
       <c r="F27" s="3">
-        <v>3056000</v>
+        <v>3114600</v>
       </c>
       <c r="G27" s="3">
-        <v>4518700</v>
+        <v>4605300</v>
       </c>
       <c r="H27" s="3">
-        <v>6716100</v>
+        <v>6844900</v>
       </c>
       <c r="I27" s="3">
-        <v>3256600</v>
+        <v>3319000</v>
       </c>
       <c r="J27" s="3">
-        <v>1875800</v>
+        <v>1911800</v>
       </c>
       <c r="K27" s="3"/>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1228,7 +1263,7 @@
       </c>
       <c r="K28" s="3"/>
     </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1255,7 +1290,7 @@
       </c>
       <c r="K29" s="3"/>
     </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1282,7 +1317,7 @@
       </c>
       <c r="K30" s="3"/>
     </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1309,61 +1344,61 @@
       </c>
       <c r="K31" s="3"/>
     </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-2611200</v>
+        <v>-2661200</v>
       </c>
       <c r="E32" s="3">
-        <v>-1585500</v>
+        <v>-1615900</v>
       </c>
       <c r="F32" s="3">
-        <v>-1332500</v>
+        <v>-1358000</v>
       </c>
       <c r="G32" s="3">
-        <v>-1364500</v>
+        <v>-1390600</v>
       </c>
       <c r="H32" s="3">
-        <v>-1089600</v>
+        <v>-1110500</v>
       </c>
       <c r="I32" s="3">
-        <v>388200</v>
+        <v>395600</v>
       </c>
       <c r="J32" s="3">
-        <v>-323000</v>
+        <v>-329200</v>
       </c>
       <c r="K32" s="3"/>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>9396300</v>
+        <v>9576400</v>
       </c>
       <c r="E33" s="3">
-        <v>5469000</v>
+        <v>5573800</v>
       </c>
       <c r="F33" s="3">
-        <v>3056000</v>
+        <v>3114600</v>
       </c>
       <c r="G33" s="3">
-        <v>4518700</v>
+        <v>4605300</v>
       </c>
       <c r="H33" s="3">
-        <v>6716100</v>
+        <v>6844900</v>
       </c>
       <c r="I33" s="3">
-        <v>3256600</v>
+        <v>3319000</v>
       </c>
       <c r="J33" s="3">
-        <v>1875800</v>
+        <v>1911800</v>
       </c>
       <c r="K33" s="3"/>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -1390,39 +1425,39 @@
       </c>
       <c r="K34" s="3"/>
     </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>9396300</v>
+        <v>9576400</v>
       </c>
       <c r="E35" s="3">
-        <v>5469000</v>
+        <v>5573800</v>
       </c>
       <c r="F35" s="3">
-        <v>3056000</v>
+        <v>3114600</v>
       </c>
       <c r="G35" s="3">
-        <v>4518700</v>
+        <v>4605300</v>
       </c>
       <c r="H35" s="3">
-        <v>6716100</v>
+        <v>6844900</v>
       </c>
       <c r="I35" s="3">
-        <v>3256600</v>
+        <v>3319000</v>
       </c>
       <c r="J35" s="3">
-        <v>1875800</v>
+        <v>1911800</v>
       </c>
       <c r="K35" s="3"/>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
@@ -1449,7 +1484,7 @@
       </c>
       <c r="K38" s="2"/>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -1462,7 +1497,7 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
     </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -1475,240 +1510,240 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
     </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>20015000</v>
+        <v>20398700</v>
       </c>
       <c r="E41" s="3">
-        <v>18680000</v>
+        <v>19038000</v>
       </c>
       <c r="F41" s="3">
-        <v>15588600</v>
+        <v>15887400</v>
       </c>
       <c r="G41" s="3">
-        <v>13054200</v>
+        <v>13304400</v>
       </c>
       <c r="H41" s="3">
-        <v>10587100</v>
+        <v>10790000</v>
       </c>
       <c r="I41" s="3">
-        <v>10698400</v>
+        <v>10903400</v>
       </c>
       <c r="J41" s="3">
-        <v>22123800</v>
+        <v>22547800</v>
       </c>
       <c r="K41" s="3"/>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>1890900</v>
+        <v>1927100</v>
       </c>
       <c r="E42" s="3">
-        <v>1325400</v>
+        <v>1350800</v>
       </c>
       <c r="F42" s="3">
-        <v>913900</v>
+        <v>931400</v>
       </c>
       <c r="G42" s="3">
-        <v>822300</v>
+        <v>838100</v>
       </c>
       <c r="H42" s="3">
-        <v>904900</v>
+        <v>922300</v>
       </c>
       <c r="I42" s="3">
-        <v>3711600</v>
+        <v>3782800</v>
       </c>
       <c r="J42" s="3">
-        <v>3313500</v>
+        <v>3377000</v>
       </c>
       <c r="K42" s="3"/>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>23427100</v>
+        <v>23876100</v>
       </c>
       <c r="E43" s="3">
-        <v>23443100</v>
+        <v>23892400</v>
       </c>
       <c r="F43" s="3">
-        <v>24416700</v>
+        <v>24884700</v>
       </c>
       <c r="G43" s="3">
-        <v>25897100</v>
+        <v>26393500</v>
       </c>
       <c r="H43" s="3">
-        <v>33978200</v>
+        <v>34629400</v>
       </c>
       <c r="I43" s="3">
-        <v>19948500</v>
+        <v>20330800</v>
       </c>
       <c r="J43" s="3">
-        <v>33597400</v>
+        <v>34241300</v>
       </c>
       <c r="K43" s="3"/>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>13513000</v>
+        <v>13772000</v>
       </c>
       <c r="E44" s="3">
-        <v>12099800</v>
+        <v>12331700</v>
       </c>
       <c r="F44" s="3">
-        <v>11648900</v>
+        <v>11872200</v>
       </c>
       <c r="G44" s="3">
-        <v>13290000</v>
+        <v>13544700</v>
       </c>
       <c r="H44" s="3">
-        <v>16044400</v>
+        <v>16351900</v>
       </c>
       <c r="I44" s="3">
-        <v>10780800</v>
+        <v>10987400</v>
       </c>
       <c r="J44" s="3">
-        <v>18374700</v>
+        <v>18726900</v>
       </c>
       <c r="K44" s="3"/>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>2581200</v>
+        <v>2630700</v>
       </c>
       <c r="E45" s="3">
-        <v>2598600</v>
+        <v>2648400</v>
       </c>
       <c r="F45" s="3">
-        <v>2795100</v>
+        <v>2848600</v>
       </c>
       <c r="G45" s="3">
-        <v>2783000</v>
+        <v>2836400</v>
       </c>
       <c r="H45" s="3">
-        <v>3981600</v>
+        <v>4058000</v>
       </c>
       <c r="I45" s="3">
-        <v>2076200</v>
+        <v>2116000</v>
       </c>
       <c r="J45" s="3">
-        <v>6662000</v>
+        <v>6789700</v>
       </c>
       <c r="K45" s="3"/>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>61427300</v>
+        <v>62604600</v>
       </c>
       <c r="E46" s="3">
-        <v>58147000</v>
+        <v>59261400</v>
       </c>
       <c r="F46" s="3">
-        <v>55363200</v>
+        <v>56424300</v>
       </c>
       <c r="G46" s="3">
-        <v>55846800</v>
+        <v>56917100</v>
       </c>
       <c r="H46" s="3">
-        <v>49221000</v>
+        <v>50164400</v>
       </c>
       <c r="I46" s="3">
-        <v>47215500</v>
+        <v>48120400</v>
       </c>
       <c r="J46" s="3">
-        <v>42035700</v>
+        <v>42841300</v>
       </c>
       <c r="K46" s="3"/>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>37550600</v>
+        <v>38270300</v>
       </c>
       <c r="E47" s="3">
-        <v>35768200</v>
+        <v>36453700</v>
       </c>
       <c r="F47" s="3">
-        <v>35571000</v>
+        <v>36252700</v>
       </c>
       <c r="G47" s="3">
-        <v>40360300</v>
+        <v>41133900</v>
       </c>
       <c r="H47" s="3">
-        <v>42844100</v>
+        <v>43665200</v>
       </c>
       <c r="I47" s="3">
-        <v>28803100</v>
+        <v>29355100</v>
       </c>
       <c r="J47" s="3">
-        <v>49656700</v>
+        <v>50608400</v>
       </c>
       <c r="K47" s="3"/>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>63425500</v>
+        <v>64641100</v>
       </c>
       <c r="E48" s="3">
-        <v>64795700</v>
+        <v>66037600</v>
       </c>
       <c r="F48" s="3">
-        <v>60472800</v>
+        <v>61631800</v>
       </c>
       <c r="G48" s="3">
-        <v>57875700</v>
+        <v>58984900</v>
       </c>
       <c r="H48" s="3">
-        <v>91397400</v>
+        <v>93149100</v>
       </c>
       <c r="I48" s="3">
-        <v>37632400</v>
+        <v>38353700</v>
       </c>
       <c r="J48" s="3">
-        <v>63802300</v>
+        <v>65025200</v>
       </c>
       <c r="K48" s="3"/>
     </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>6577200</v>
+        <v>6703300</v>
       </c>
       <c r="E49" s="3">
-        <v>6902600</v>
+        <v>7034900</v>
       </c>
       <c r="F49" s="3">
-        <v>7317200</v>
+        <v>7457400</v>
       </c>
       <c r="G49" s="3">
-        <v>6737100</v>
+        <v>6866200</v>
       </c>
       <c r="H49" s="3">
-        <v>5941000</v>
+        <v>6054800</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>42</v>
@@ -1718,7 +1753,7 @@
       </c>
       <c r="K49" s="3"/>
     </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1745,7 +1780,7 @@
       </c>
       <c r="K50" s="3"/>
     </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="51" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1772,34 +1807,34 @@
       </c>
       <c r="K51" s="3"/>
     </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="52" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2646500</v>
+        <v>2697200</v>
       </c>
       <c r="E52" s="3">
-        <v>2545100</v>
+        <v>2593900</v>
       </c>
       <c r="F52" s="3">
-        <v>2969600</v>
+        <v>3026500</v>
       </c>
       <c r="G52" s="3">
-        <v>2617300</v>
+        <v>2667500</v>
       </c>
       <c r="H52" s="3">
-        <v>10895700</v>
+        <v>11104600</v>
       </c>
       <c r="I52" s="3">
-        <v>7294700</v>
+        <v>7434500</v>
       </c>
       <c r="J52" s="3">
-        <v>8594900</v>
+        <v>8759700</v>
       </c>
       <c r="K52" s="3"/>
     </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1826,34 +1861,34 @@
       </c>
       <c r="K53" s="3"/>
     </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="54" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>171627000</v>
+        <v>174916000</v>
       </c>
       <c r="E54" s="3">
-        <v>168159000</v>
+        <v>171381000</v>
       </c>
       <c r="F54" s="3">
-        <v>161694000</v>
+        <v>164793000</v>
       </c>
       <c r="G54" s="3">
-        <v>163437000</v>
+        <v>166570000</v>
       </c>
       <c r="H54" s="3">
-        <v>142350000</v>
+        <v>145078000</v>
       </c>
       <c r="I54" s="3">
-        <v>120946000</v>
+        <v>123264000</v>
       </c>
       <c r="J54" s="3">
-        <v>104556000</v>
+        <v>106560000</v>
       </c>
       <c r="K54" s="3"/>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1866,7 +1901,7 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
     </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="56" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1879,169 +1914,169 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
     </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="57" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>9354200</v>
+        <v>9533500</v>
       </c>
       <c r="E57" s="3">
-        <v>8988000</v>
+        <v>9160300</v>
       </c>
       <c r="F57" s="3">
-        <v>8529400</v>
+        <v>8692900</v>
       </c>
       <c r="G57" s="3">
-        <v>8866300</v>
+        <v>9036300</v>
       </c>
       <c r="H57" s="3">
-        <v>17785500</v>
+        <v>18126400</v>
       </c>
       <c r="I57" s="3">
-        <v>8763700</v>
+        <v>8931600</v>
       </c>
       <c r="J57" s="3">
-        <v>17189000</v>
+        <v>17518500</v>
       </c>
       <c r="K57" s="3"/>
     </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>25876100</v>
+        <v>26372000</v>
       </c>
       <c r="E58" s="3">
-        <v>24720100</v>
+        <v>25193800</v>
       </c>
       <c r="F58" s="3">
-        <v>24743900</v>
+        <v>25218200</v>
       </c>
       <c r="G58" s="3">
-        <v>25133700</v>
+        <v>25615400</v>
       </c>
       <c r="H58" s="3">
-        <v>46525300</v>
+        <v>47417000</v>
       </c>
       <c r="I58" s="3">
-        <v>19366300</v>
+        <v>19737400</v>
       </c>
       <c r="J58" s="3">
-        <v>33284600</v>
+        <v>33922500</v>
       </c>
       <c r="K58" s="3"/>
     </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>14655400</v>
+        <v>14936300</v>
       </c>
       <c r="E59" s="3">
-        <v>14445700</v>
+        <v>14722600</v>
       </c>
       <c r="F59" s="3">
-        <v>15248600</v>
+        <v>15540900</v>
       </c>
       <c r="G59" s="3">
-        <v>13020300</v>
+        <v>13269900</v>
       </c>
       <c r="H59" s="3">
-        <v>11238200</v>
+        <v>11453600</v>
       </c>
       <c r="I59" s="3">
-        <v>8139500</v>
+        <v>8295500</v>
       </c>
       <c r="J59" s="3">
-        <v>13031300</v>
+        <v>13281100</v>
       </c>
       <c r="K59" s="3"/>
     </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>49885800</v>
+        <v>50841900</v>
       </c>
       <c r="E60" s="3">
-        <v>48153800</v>
+        <v>49076700</v>
       </c>
       <c r="F60" s="3">
-        <v>48522000</v>
+        <v>49452000</v>
       </c>
       <c r="G60" s="3">
-        <v>47020300</v>
+        <v>47921500</v>
       </c>
       <c r="H60" s="3">
-        <v>42148500</v>
+        <v>42956300</v>
       </c>
       <c r="I60" s="3">
-        <v>36269500</v>
+        <v>36964600</v>
       </c>
       <c r="J60" s="3">
-        <v>31752500</v>
+        <v>32361000</v>
       </c>
       <c r="K60" s="3"/>
     </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>34963400</v>
+        <v>35633500</v>
       </c>
       <c r="E61" s="3">
-        <v>36095900</v>
+        <v>36787700</v>
       </c>
       <c r="F61" s="3">
-        <v>33567500</v>
+        <v>34210800</v>
       </c>
       <c r="G61" s="3">
-        <v>35368400</v>
+        <v>36046300</v>
       </c>
       <c r="H61" s="3">
-        <v>29248900</v>
+        <v>29809400</v>
       </c>
       <c r="I61" s="3">
-        <v>24045200</v>
+        <v>24506000</v>
       </c>
       <c r="J61" s="3">
-        <v>19824500</v>
+        <v>20204400</v>
       </c>
       <c r="K61" s="3"/>
     </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>13741500</v>
+        <v>14004900</v>
       </c>
       <c r="E62" s="3">
-        <v>16766300</v>
+        <v>17087600</v>
       </c>
       <c r="F62" s="3">
-        <v>17232400</v>
+        <v>17562700</v>
       </c>
       <c r="G62" s="3">
-        <v>15562800</v>
+        <v>15861000</v>
       </c>
       <c r="H62" s="3">
-        <v>26640500</v>
+        <v>27151100</v>
       </c>
       <c r="I62" s="3">
-        <v>14458900</v>
+        <v>14736000</v>
       </c>
       <c r="J62" s="3">
-        <v>25657800</v>
+        <v>26149500</v>
       </c>
       <c r="K62" s="3"/>
     </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2068,7 +2103,7 @@
       </c>
       <c r="K63" s="3"/>
     </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="64" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2095,7 +2130,7 @@
       </c>
       <c r="K64" s="3"/>
     </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2122,34 +2157,34 @@
       </c>
       <c r="K65" s="3"/>
     </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>101257000</v>
+        <v>103197000</v>
       </c>
       <c r="E66" s="3">
-        <v>103449000</v>
+        <v>105432000</v>
       </c>
       <c r="F66" s="3">
-        <v>101720000</v>
+        <v>103670000</v>
       </c>
       <c r="G66" s="3">
-        <v>100384000</v>
+        <v>102308000</v>
       </c>
       <c r="H66" s="3">
-        <v>86153500</v>
+        <v>87804700</v>
       </c>
       <c r="I66" s="3">
-        <v>76209800</v>
+        <v>77670400</v>
       </c>
       <c r="J66" s="3">
-        <v>65597000</v>
+        <v>66854200</v>
       </c>
       <c r="K66" s="3"/>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2162,7 +2197,7 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
     </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2189,7 +2224,7 @@
       </c>
       <c r="K68" s="3"/>
     </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2216,7 +2251,7 @@
       </c>
       <c r="K69" s="3"/>
     </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2243,7 +2278,7 @@
       </c>
       <c r="K70" s="3"/>
     </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2270,34 +2305,34 @@
       </c>
       <c r="K71" s="3"/>
     </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>67512500</v>
+        <v>68806400</v>
       </c>
       <c r="E72" s="3">
-        <v>59543400</v>
+        <v>60684600</v>
       </c>
       <c r="F72" s="3">
-        <v>54943500</v>
+        <v>55996600</v>
       </c>
       <c r="G72" s="3">
-        <v>53961300</v>
+        <v>54995500</v>
       </c>
       <c r="H72" s="3">
-        <v>109208000</v>
+        <v>111301000</v>
       </c>
       <c r="I72" s="3">
-        <v>53656700</v>
+        <v>54685100</v>
       </c>
       <c r="J72" s="3">
-        <v>102669000</v>
+        <v>104637000</v>
       </c>
       <c r="K72" s="3"/>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2324,7 +2359,7 @@
       </c>
       <c r="K73" s="3"/>
     </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2351,7 +2386,7 @@
       </c>
       <c r="K74" s="3"/>
     </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2378,34 +2413,34 @@
       </c>
       <c r="K75" s="3"/>
     </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>70370500</v>
+        <v>71719200</v>
       </c>
       <c r="E76" s="3">
-        <v>64709300</v>
+        <v>65949500</v>
       </c>
       <c r="F76" s="3">
-        <v>59973900</v>
+        <v>61123400</v>
       </c>
       <c r="G76" s="3">
-        <v>63053500</v>
+        <v>64262000</v>
       </c>
       <c r="H76" s="3">
-        <v>56196200</v>
+        <v>57273200</v>
       </c>
       <c r="I76" s="3">
-        <v>44735800</v>
+        <v>45593200</v>
       </c>
       <c r="J76" s="3">
-        <v>38959000</v>
+        <v>39705700</v>
       </c>
       <c r="K76" s="3"/>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2432,12 +2467,12 @@
       </c>
       <c r="K77" s="3"/>
     </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
@@ -2464,34 +2499,34 @@
       </c>
       <c r="K80" s="2"/>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>9396300</v>
+        <v>9576400</v>
       </c>
       <c r="E81" s="3">
-        <v>5469000</v>
+        <v>5573800</v>
       </c>
       <c r="F81" s="3">
-        <v>3056000</v>
+        <v>3114600</v>
       </c>
       <c r="G81" s="3">
-        <v>4518700</v>
+        <v>4605300</v>
       </c>
       <c r="H81" s="3">
-        <v>6716100</v>
+        <v>6844900</v>
       </c>
       <c r="I81" s="3">
-        <v>3256600</v>
+        <v>3319000</v>
       </c>
       <c r="J81" s="3">
-        <v>1875800</v>
+        <v>1911800</v>
       </c>
       <c r="K81" s="3"/>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2504,34 +2539,34 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
     </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="83" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>6325100</v>
+        <v>6446400</v>
       </c>
       <c r="E83" s="3">
-        <v>5981300</v>
+        <v>6095900</v>
       </c>
       <c r="F83" s="3">
-        <v>5860500</v>
+        <v>5972900</v>
       </c>
       <c r="G83" s="3">
-        <v>5545800</v>
+        <v>5652100</v>
       </c>
       <c r="H83" s="3">
-        <v>5216700</v>
+        <v>5316700</v>
       </c>
       <c r="I83" s="3">
-        <v>5237500</v>
+        <v>5337800</v>
       </c>
       <c r="J83" s="3">
-        <v>4921700</v>
+        <v>5016000</v>
       </c>
       <c r="K83" s="3"/>
     </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2558,7 +2593,7 @@
       </c>
       <c r="K84" s="3"/>
     </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="85" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2585,7 +2620,7 @@
       </c>
       <c r="K85" s="3"/>
     </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="86" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2612,7 +2647,7 @@
       </c>
       <c r="K86" s="3"/>
     </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="87" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2639,7 +2674,7 @@
       </c>
       <c r="K87" s="3"/>
     </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="88" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2666,34 +2701,34 @@
       </c>
       <c r="K88" s="3"/>
     </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="89" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>8760600</v>
+        <v>8928500</v>
       </c>
       <c r="E89" s="3">
-        <v>7850600</v>
+        <v>8001100</v>
       </c>
       <c r="F89" s="3">
-        <v>12338100</v>
+        <v>12574600</v>
       </c>
       <c r="G89" s="3">
-        <v>9051000</v>
+        <v>9224500</v>
       </c>
       <c r="H89" s="3">
-        <v>3983600</v>
+        <v>4059900</v>
       </c>
       <c r="I89" s="3">
-        <v>7102600</v>
+        <v>7238700</v>
       </c>
       <c r="J89" s="3">
-        <v>6754800</v>
+        <v>6884300</v>
       </c>
       <c r="K89" s="3"/>
     </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2706,34 +2741,34 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
     </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="91" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-5078000</v>
+        <v>-3756700</v>
       </c>
       <c r="E91" s="3">
-        <v>-5654200</v>
+        <v>-4467000</v>
       </c>
       <c r="F91" s="3">
-        <v>-7734300</v>
+        <v>-5742000</v>
       </c>
       <c r="G91" s="3">
-        <v>-7833300</v>
+        <v>-5859800</v>
       </c>
       <c r="H91" s="3">
-        <v>-25093500</v>
+        <v>-23687300</v>
       </c>
       <c r="I91" s="3">
-        <v>-12595400</v>
+        <v>-12836800</v>
       </c>
       <c r="J91" s="3">
-        <v>-9588300</v>
+        <v>-9772100</v>
       </c>
       <c r="K91" s="3"/>
     </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2760,7 +2795,7 @@
       </c>
       <c r="K92" s="3"/>
     </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="93" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2787,34 +2822,34 @@
       </c>
       <c r="K93" s="3"/>
     </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="94" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-5456100</v>
+        <v>-5560600</v>
       </c>
       <c r="E94" s="3">
-        <v>-5771000</v>
+        <v>-5881600</v>
       </c>
       <c r="F94" s="3">
-        <v>-7761900</v>
+        <v>-7910700</v>
       </c>
       <c r="G94" s="3">
-        <v>-7455200</v>
+        <v>-7598100</v>
       </c>
       <c r="H94" s="3">
-        <v>-8169500</v>
+        <v>-8326000</v>
       </c>
       <c r="I94" s="3">
-        <v>-9488700</v>
+        <v>-9670600</v>
       </c>
       <c r="J94" s="3">
-        <v>-5970100</v>
+        <v>-6084500</v>
       </c>
       <c r="K94" s="3"/>
     </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2827,34 +2862,34 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
     </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="96" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1545300</v>
+        <v>-1575000</v>
       </c>
       <c r="E96" s="3">
-        <v>-1438800</v>
+        <v>-1466300</v>
       </c>
       <c r="F96" s="3">
-        <v>-1406800</v>
+        <v>-1433800</v>
       </c>
       <c r="G96" s="3">
-        <v>-1406800</v>
+        <v>-1433800</v>
       </c>
       <c r="H96" s="3">
-        <v>-1262900</v>
+        <v>-1287100</v>
       </c>
       <c r="I96" s="3">
-        <v>-1151000</v>
+        <v>-1173100</v>
       </c>
       <c r="J96" s="3">
-        <v>-959200</v>
+        <v>-977600</v>
       </c>
       <c r="K96" s="3"/>
     </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -2881,7 +2916,7 @@
       </c>
       <c r="K97" s="3"/>
     </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="98" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -2908,7 +2943,7 @@
       </c>
       <c r="K98" s="3"/>
     </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="99" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -2935,84 +2970,84 @@
       </c>
       <c r="K99" s="3"/>
     </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="100" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1546300</v>
+        <v>-1576000</v>
       </c>
       <c r="E100" s="3">
-        <v>1023800</v>
+        <v>1043400</v>
       </c>
       <c r="F100" s="3">
-        <v>-845300</v>
+        <v>-861500</v>
       </c>
       <c r="G100" s="3">
-        <v>110800</v>
+        <v>112900</v>
       </c>
       <c r="H100" s="3">
-        <v>3152900</v>
+        <v>3213300</v>
       </c>
       <c r="I100" s="3">
-        <v>1060600</v>
+        <v>1080900</v>
       </c>
       <c r="J100" s="3">
-        <v>-605200</v>
+        <v>-616800</v>
       </c>
       <c r="K100" s="3"/>
     </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-423200</v>
+        <v>-431300</v>
       </c>
       <c r="E101" s="3">
-        <v>-12000</v>
+        <v>-12300</v>
       </c>
       <c r="F101" s="3">
-        <v>-1196500</v>
+        <v>-1219400</v>
       </c>
       <c r="G101" s="3">
-        <v>760600</v>
+        <v>775200</v>
       </c>
       <c r="H101" s="3">
-        <v>349700</v>
+        <v>356400</v>
       </c>
       <c r="I101" s="3">
-        <v>962000</v>
+        <v>980500</v>
       </c>
       <c r="J101" s="3">
-        <v>-462600</v>
+        <v>-471400</v>
       </c>
       <c r="K101" s="3"/>
     </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1335000</v>
+        <v>1360600</v>
       </c>
       <c r="E102" s="3">
-        <v>3091400</v>
+        <v>3150600</v>
       </c>
       <c r="F102" s="3">
-        <v>2534400</v>
+        <v>2583000</v>
       </c>
       <c r="G102" s="3">
-        <v>2467200</v>
+        <v>2514400</v>
       </c>
       <c r="H102" s="3">
-        <v>-683200</v>
+        <v>-696300</v>
       </c>
       <c r="I102" s="3">
-        <v>-363500</v>
+        <v>-370500</v>
       </c>
       <c r="J102" s="3">
-        <v>-283100</v>
+        <v>-288500</v>
       </c>
       <c r="K102" s="3"/>
     </row>

--- a/Financials/Yearly/HMC_YR_FIN.xlsx
+++ b/Financials/Yearly/HMC_YR_FIN.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{155DBA0D-EBE9-4E44-A621-7B299764731F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
   </bookViews>
   <sheets>
     <sheet name="HMC" sheetId="6" r:id="rId1"/>
@@ -304,7 +303,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
@@ -445,23 +444,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -497,23 +479,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -689,140 +654,152 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="11" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43555</v>
+      </c>
+      <c r="E7" s="2">
         <v>43190</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>42825</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42460</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42094</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>41729</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41364</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>40999</v>
       </c>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>138864800</v>
+        <v>144427500</v>
       </c>
       <c r="E8" s="3">
-        <v>126552800</v>
+        <v>139632800</v>
       </c>
       <c r="F8" s="3">
-        <v>131994400</v>
+        <v>127252700</v>
       </c>
       <c r="G8" s="3">
-        <v>120486000</v>
+        <v>132724500</v>
       </c>
       <c r="H8" s="3">
-        <v>113055100</v>
+        <v>121152400</v>
       </c>
       <c r="I8" s="3">
-        <v>89296600</v>
+        <v>113680400</v>
       </c>
       <c r="J8" s="3">
+        <v>89790500</v>
+      </c>
+      <c r="K8" s="3">
         <v>71850800</v>
       </c>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>108485300</v>
+        <v>114360800</v>
       </c>
       <c r="E9" s="3">
-        <v>98227300</v>
+        <v>109085300</v>
       </c>
       <c r="F9" s="3">
-        <v>102444900</v>
+        <v>98770600</v>
       </c>
       <c r="G9" s="3">
-        <v>93390300</v>
+        <v>103011500</v>
       </c>
       <c r="H9" s="3">
-        <v>86698600</v>
+        <v>93906800</v>
       </c>
       <c r="I9" s="3">
-        <v>66400300</v>
+        <v>87178200</v>
       </c>
       <c r="J9" s="3">
+        <v>66767500</v>
+      </c>
+      <c r="K9" s="3">
         <v>53513500</v>
       </c>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>30379500</v>
+        <v>30066700</v>
       </c>
       <c r="E10" s="3">
-        <v>28325500</v>
+        <v>30547500</v>
       </c>
       <c r="F10" s="3">
-        <v>29549500</v>
+        <v>28482200</v>
       </c>
       <c r="G10" s="3">
-        <v>27095700</v>
+        <v>29713000</v>
       </c>
       <c r="H10" s="3">
-        <v>26356400</v>
+        <v>27245600</v>
       </c>
       <c r="I10" s="3">
-        <v>22896400</v>
+        <v>26502200</v>
       </c>
       <c r="J10" s="3">
+        <v>23023000</v>
+      </c>
+      <c r="K10" s="3">
         <v>18337300</v>
       </c>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -834,35 +811,39 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>6796800</v>
+        <v>7334800</v>
       </c>
       <c r="E12" s="3">
-        <v>6250500</v>
+        <v>6834400</v>
       </c>
       <c r="F12" s="3">
-        <v>5934800</v>
+        <v>6285100</v>
       </c>
       <c r="G12" s="3">
-        <v>5479700</v>
+        <v>5967600</v>
       </c>
       <c r="H12" s="3">
-        <v>5409300</v>
+        <v>5510000</v>
       </c>
       <c r="I12" s="3">
-        <v>5064800</v>
+        <v>5439200</v>
       </c>
       <c r="J12" s="3">
+        <v>5092900</v>
+      </c>
+      <c r="K12" s="3">
         <v>4699200</v>
       </c>
-      <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -887,9 +868,12 @@
       <c r="J13" s="3">
         <v>0</v>
       </c>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -914,9 +898,12 @@
       <c r="J14" s="3">
         <v>0</v>
       </c>
-      <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -941,9 +928,12 @@
       <c r="J15" s="3">
         <v>0</v>
       </c>
-      <c r="K15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K15" s="3">
+        <v>0</v>
+      </c>
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -952,62 +942,69 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>131329400</v>
+        <v>137824800</v>
       </c>
       <c r="E17" s="3">
-        <v>118952700</v>
+        <v>132055800</v>
       </c>
       <c r="F17" s="3">
-        <v>127443900</v>
+        <v>119610700</v>
       </c>
       <c r="G17" s="3">
-        <v>114423800</v>
+        <v>128148800</v>
       </c>
       <c r="H17" s="3">
-        <v>105607300</v>
+        <v>115056600</v>
       </c>
       <c r="I17" s="3">
-        <v>84371600</v>
+        <v>106191400</v>
       </c>
       <c r="J17" s="3">
+        <v>84838200</v>
+      </c>
+      <c r="K17" s="3">
         <v>69759200</v>
       </c>
-      <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>7535400</v>
+        <v>6602700</v>
       </c>
       <c r="E18" s="3">
-        <v>7600000</v>
+        <v>7577000</v>
       </c>
       <c r="F18" s="3">
-        <v>4550500</v>
+        <v>7642100</v>
       </c>
       <c r="G18" s="3">
-        <v>6062300</v>
+        <v>4575700</v>
       </c>
       <c r="H18" s="3">
-        <v>7447700</v>
+        <v>6095800</v>
       </c>
       <c r="I18" s="3">
-        <v>4925100</v>
+        <v>7488900</v>
       </c>
       <c r="J18" s="3">
+        <v>4952300</v>
+      </c>
+      <c r="K18" s="3">
         <v>2091500</v>
       </c>
-      <c r="K18" s="3"/>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1019,143 +1016,159 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>2661200</v>
+        <v>2420000</v>
       </c>
       <c r="E20" s="3">
-        <v>1615900</v>
+        <v>2676000</v>
       </c>
       <c r="F20" s="3">
-        <v>1358000</v>
+        <v>1624800</v>
       </c>
       <c r="G20" s="3">
-        <v>1390600</v>
+        <v>1365500</v>
       </c>
       <c r="H20" s="3">
-        <v>1110500</v>
+        <v>1398300</v>
       </c>
       <c r="I20" s="3">
-        <v>-395600</v>
+        <v>1116600</v>
       </c>
       <c r="J20" s="3">
+        <v>-397800</v>
+      </c>
+      <c r="K20" s="3">
         <v>329200</v>
       </c>
-      <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>16650100</v>
+        <v>15597300</v>
       </c>
       <c r="E21" s="3">
-        <v>15318600</v>
+        <v>16749300</v>
       </c>
       <c r="F21" s="3">
-        <v>11888000</v>
+        <v>15410000</v>
       </c>
       <c r="G21" s="3">
-        <v>13111200</v>
+        <v>11960300</v>
       </c>
       <c r="H21" s="3">
-        <v>13880800</v>
+        <v>13189900</v>
       </c>
       <c r="I21" s="3">
-        <v>9873200</v>
+        <v>13963400</v>
       </c>
       <c r="J21" s="3">
+        <v>9933700</v>
+      </c>
+      <c r="K21" s="3">
         <v>7442300</v>
       </c>
-      <c r="K21" s="3"/>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>117200</v>
+        <v>120100</v>
       </c>
       <c r="E22" s="3">
-        <v>112700</v>
+        <v>117900</v>
       </c>
       <c r="F22" s="3">
-        <v>164000</v>
+        <v>113400</v>
       </c>
       <c r="G22" s="3">
-        <v>164500</v>
+        <v>164900</v>
       </c>
       <c r="H22" s="3">
-        <v>115700</v>
+        <v>165400</v>
       </c>
       <c r="I22" s="3">
-        <v>109900</v>
+        <v>116400</v>
       </c>
       <c r="J22" s="3">
+        <v>110500</v>
+      </c>
+      <c r="K22" s="3">
         <v>93800</v>
       </c>
-      <c r="K22" s="3"/>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>10079400</v>
+        <v>8902500</v>
       </c>
       <c r="E23" s="3">
-        <v>9103200</v>
+        <v>10135100</v>
       </c>
       <c r="F23" s="3">
-        <v>5744500</v>
+        <v>9153500</v>
       </c>
       <c r="G23" s="3">
-        <v>7288400</v>
+        <v>5776200</v>
       </c>
       <c r="H23" s="3">
-        <v>8442500</v>
+        <v>7328700</v>
       </c>
       <c r="I23" s="3">
-        <v>4419600</v>
+        <v>8489200</v>
       </c>
       <c r="J23" s="3">
+        <v>4444000</v>
+      </c>
+      <c r="K23" s="3">
         <v>2326900</v>
       </c>
-      <c r="K23" s="3"/>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L23" s="3"/>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>-123500</v>
+        <v>2755100</v>
       </c>
       <c r="E24" s="3">
-        <v>2961400</v>
+        <v>-124200</v>
       </c>
       <c r="F24" s="3">
-        <v>2071000</v>
+        <v>2977800</v>
       </c>
       <c r="G24" s="3">
-        <v>2216100</v>
+        <v>2082400</v>
       </c>
       <c r="H24" s="3">
-        <v>2422600</v>
+        <v>2228300</v>
       </c>
       <c r="I24" s="3">
-        <v>1617900</v>
+        <v>2436000</v>
       </c>
       <c r="J24" s="3">
+        <v>1626900</v>
+      </c>
+      <c r="K24" s="3">
         <v>1227000</v>
       </c>
-      <c r="K24" s="3"/>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L24" s="3"/>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1180,63 +1193,72 @@
       <c r="J25" s="3">
         <v>0</v>
       </c>
-      <c r="K25" s="3"/>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K25" s="3">
+        <v>0</v>
+      </c>
+      <c r="L25" s="3"/>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>10202900</v>
+        <v>6147400</v>
       </c>
       <c r="E26" s="3">
-        <v>6141700</v>
+        <v>10259300</v>
       </c>
       <c r="F26" s="3">
-        <v>3673500</v>
+        <v>6175700</v>
       </c>
       <c r="G26" s="3">
-        <v>5072300</v>
+        <v>3693800</v>
       </c>
       <c r="H26" s="3">
-        <v>6019800</v>
+        <v>5100400</v>
       </c>
       <c r="I26" s="3">
-        <v>2801600</v>
+        <v>6053100</v>
       </c>
       <c r="J26" s="3">
+        <v>2817100</v>
+      </c>
+      <c r="K26" s="3">
         <v>1099900</v>
       </c>
-      <c r="K26" s="3"/>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L26" s="3"/>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>9576400</v>
+        <v>5547800</v>
       </c>
       <c r="E27" s="3">
-        <v>5573800</v>
+        <v>9629400</v>
       </c>
       <c r="F27" s="3">
-        <v>3114600</v>
+        <v>5604600</v>
       </c>
       <c r="G27" s="3">
-        <v>4605300</v>
+        <v>3131800</v>
       </c>
       <c r="H27" s="3">
-        <v>6844900</v>
+        <v>4630800</v>
       </c>
       <c r="I27" s="3">
-        <v>3319000</v>
+        <v>6882700</v>
       </c>
       <c r="J27" s="3">
+        <v>3337400</v>
+      </c>
+      <c r="K27" s="3">
         <v>1911800</v>
       </c>
-      <c r="K27" s="3"/>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1261,9 +1283,12 @@
       <c r="J28" s="3">
         <v>0</v>
       </c>
-      <c r="K28" s="3"/>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K28" s="3">
+        <v>0</v>
+      </c>
+      <c r="L28" s="3"/>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1288,9 +1313,12 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3"/>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3"/>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1315,9 +1343,12 @@
       <c r="J30" s="3">
         <v>0</v>
       </c>
-      <c r="K30" s="3"/>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K30" s="3">
+        <v>0</v>
+      </c>
+      <c r="L30" s="3"/>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1342,63 +1373,72 @@
       <c r="J31" s="3">
         <v>0</v>
       </c>
-      <c r="K31" s="3"/>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K31" s="3">
+        <v>0</v>
+      </c>
+      <c r="L31" s="3"/>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-2661200</v>
+        <v>-2420000</v>
       </c>
       <c r="E32" s="3">
-        <v>-1615900</v>
+        <v>-2676000</v>
       </c>
       <c r="F32" s="3">
-        <v>-1358000</v>
+        <v>-1624800</v>
       </c>
       <c r="G32" s="3">
-        <v>-1390600</v>
+        <v>-1365500</v>
       </c>
       <c r="H32" s="3">
-        <v>-1110500</v>
+        <v>-1398300</v>
       </c>
       <c r="I32" s="3">
-        <v>395600</v>
+        <v>-1116600</v>
       </c>
       <c r="J32" s="3">
+        <v>397800</v>
+      </c>
+      <c r="K32" s="3">
         <v>-329200</v>
       </c>
-      <c r="K32" s="3"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L32" s="3"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>9576400</v>
+        <v>5547800</v>
       </c>
       <c r="E33" s="3">
-        <v>5573800</v>
+        <v>9629400</v>
       </c>
       <c r="F33" s="3">
-        <v>3114600</v>
+        <v>5604600</v>
       </c>
       <c r="G33" s="3">
-        <v>4605300</v>
+        <v>3131800</v>
       </c>
       <c r="H33" s="3">
-        <v>6844900</v>
+        <v>4630800</v>
       </c>
       <c r="I33" s="3">
-        <v>3319000</v>
+        <v>6882700</v>
       </c>
       <c r="J33" s="3">
+        <v>3337400</v>
+      </c>
+      <c r="K33" s="3">
         <v>1911800</v>
       </c>
-      <c r="K33" s="3"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L33" s="3"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -1423,68 +1463,77 @@
       <c r="J34" s="3">
         <v>0</v>
       </c>
-      <c r="K34" s="3"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K34" s="3">
+        <v>0</v>
+      </c>
+      <c r="L34" s="3"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>9576400</v>
+        <v>5547800</v>
       </c>
       <c r="E35" s="3">
-        <v>5573800</v>
+        <v>9629400</v>
       </c>
       <c r="F35" s="3">
-        <v>3114600</v>
+        <v>5604600</v>
       </c>
       <c r="G35" s="3">
-        <v>4605300</v>
+        <v>3131800</v>
       </c>
       <c r="H35" s="3">
-        <v>6844900</v>
+        <v>4630800</v>
       </c>
       <c r="I35" s="3">
-        <v>3319000</v>
+        <v>6882700</v>
       </c>
       <c r="J35" s="3">
+        <v>3337400</v>
+      </c>
+      <c r="K35" s="3">
         <v>1911800</v>
       </c>
-      <c r="K35" s="3"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L35" s="3"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43555</v>
+      </c>
+      <c r="E38" s="2">
         <v>43190</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>42825</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42460</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42094</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>41729</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41364</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>40999</v>
       </c>
-      <c r="K38" s="2"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -1496,8 +1545,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -1509,251 +1559,279 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>20398700</v>
+        <v>22671600</v>
       </c>
       <c r="E41" s="3">
-        <v>19038000</v>
+        <v>20511500</v>
       </c>
       <c r="F41" s="3">
-        <v>15887400</v>
+        <v>19143300</v>
       </c>
       <c r="G41" s="3">
-        <v>13304400</v>
+        <v>15975300</v>
       </c>
       <c r="H41" s="3">
-        <v>10790000</v>
+        <v>13378000</v>
       </c>
       <c r="I41" s="3">
-        <v>10903400</v>
+        <v>10849700</v>
       </c>
       <c r="J41" s="3">
+        <v>10963700</v>
+      </c>
+      <c r="K41" s="3">
         <v>22547800</v>
       </c>
-      <c r="K41" s="3"/>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L41" s="3"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>1927100</v>
+        <v>1484200</v>
       </c>
       <c r="E42" s="3">
-        <v>1350800</v>
+        <v>1937800</v>
       </c>
       <c r="F42" s="3">
-        <v>931400</v>
+        <v>1358300</v>
       </c>
       <c r="G42" s="3">
-        <v>838100</v>
+        <v>936600</v>
       </c>
       <c r="H42" s="3">
-        <v>922300</v>
+        <v>842700</v>
       </c>
       <c r="I42" s="3">
-        <v>3782800</v>
+        <v>927400</v>
       </c>
       <c r="J42" s="3">
+        <v>3803700</v>
+      </c>
+      <c r="K42" s="3">
         <v>3377000</v>
       </c>
-      <c r="K42" s="3"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L42" s="3"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>23876100</v>
+        <v>24950900</v>
       </c>
       <c r="E43" s="3">
-        <v>23892400</v>
+        <v>24008200</v>
       </c>
       <c r="F43" s="3">
-        <v>24884700</v>
+        <v>24024500</v>
       </c>
       <c r="G43" s="3">
-        <v>26393500</v>
+        <v>25022300</v>
       </c>
       <c r="H43" s="3">
-        <v>34629400</v>
+        <v>26539500</v>
       </c>
       <c r="I43" s="3">
-        <v>20330800</v>
+        <v>34820900</v>
       </c>
       <c r="J43" s="3">
+        <v>20443300</v>
+      </c>
+      <c r="K43" s="3">
         <v>34241300</v>
       </c>
-      <c r="K43" s="3"/>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L43" s="3"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>13772000</v>
+        <v>14423900</v>
       </c>
       <c r="E44" s="3">
-        <v>12331700</v>
+        <v>13848200</v>
       </c>
       <c r="F44" s="3">
-        <v>11872200</v>
+        <v>12399900</v>
       </c>
       <c r="G44" s="3">
-        <v>13544700</v>
+        <v>11937800</v>
       </c>
       <c r="H44" s="3">
-        <v>16351900</v>
+        <v>13619700</v>
       </c>
       <c r="I44" s="3">
-        <v>10987400</v>
+        <v>16442400</v>
       </c>
       <c r="J44" s="3">
+        <v>11048200</v>
+      </c>
+      <c r="K44" s="3">
         <v>18726900</v>
       </c>
-      <c r="K44" s="3"/>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L44" s="3"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>2630700</v>
+        <v>3256300</v>
       </c>
       <c r="E45" s="3">
-        <v>2648400</v>
+        <v>2645200</v>
       </c>
       <c r="F45" s="3">
-        <v>2848600</v>
+        <v>2663100</v>
       </c>
       <c r="G45" s="3">
-        <v>2836400</v>
+        <v>2864400</v>
       </c>
       <c r="H45" s="3">
-        <v>4058000</v>
+        <v>2852100</v>
       </c>
       <c r="I45" s="3">
-        <v>2116000</v>
+        <v>4080400</v>
       </c>
       <c r="J45" s="3">
+        <v>2127700</v>
+      </c>
+      <c r="K45" s="3">
         <v>6789700</v>
       </c>
-      <c r="K45" s="3"/>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L45" s="3"/>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>62604600</v>
+        <v>66786900</v>
       </c>
       <c r="E46" s="3">
-        <v>59261400</v>
+        <v>62950900</v>
       </c>
       <c r="F46" s="3">
-        <v>56424300</v>
+        <v>59589200</v>
       </c>
       <c r="G46" s="3">
-        <v>56917100</v>
+        <v>56736400</v>
       </c>
       <c r="H46" s="3">
-        <v>50164400</v>
+        <v>57231900</v>
       </c>
       <c r="I46" s="3">
-        <v>48120400</v>
+        <v>50441800</v>
       </c>
       <c r="J46" s="3">
+        <v>48386600</v>
+      </c>
+      <c r="K46" s="3">
         <v>42841300</v>
       </c>
-      <c r="K46" s="3"/>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L46" s="3"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>38270300</v>
+        <v>41666800</v>
       </c>
       <c r="E47" s="3">
-        <v>36453700</v>
+        <v>38481900</v>
       </c>
       <c r="F47" s="3">
-        <v>36252700</v>
+        <v>36655300</v>
       </c>
       <c r="G47" s="3">
-        <v>41133900</v>
+        <v>36453300</v>
       </c>
       <c r="H47" s="3">
-        <v>43665200</v>
+        <v>41361400</v>
       </c>
       <c r="I47" s="3">
-        <v>29355100</v>
+        <v>43906700</v>
       </c>
       <c r="J47" s="3">
+        <v>29517500</v>
+      </c>
+      <c r="K47" s="3">
         <v>50608400</v>
       </c>
-      <c r="K47" s="3"/>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L47" s="3"/>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>64641100</v>
+        <v>67545000</v>
       </c>
       <c r="E48" s="3">
-        <v>66037600</v>
+        <v>64998600</v>
       </c>
       <c r="F48" s="3">
-        <v>61631800</v>
+        <v>66402800</v>
       </c>
       <c r="G48" s="3">
-        <v>58984900</v>
+        <v>61972700</v>
       </c>
       <c r="H48" s="3">
-        <v>93149100</v>
+        <v>59311100</v>
       </c>
       <c r="I48" s="3">
-        <v>38353700</v>
+        <v>93664300</v>
       </c>
       <c r="J48" s="3">
+        <v>38565800</v>
+      </c>
+      <c r="K48" s="3">
         <v>65025200</v>
       </c>
-      <c r="K48" s="3"/>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L48" s="3"/>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>6703300</v>
+        <v>6766300</v>
       </c>
       <c r="E49" s="3">
-        <v>7034900</v>
+        <v>6740400</v>
       </c>
       <c r="F49" s="3">
-        <v>7457400</v>
+        <v>7073800</v>
       </c>
       <c r="G49" s="3">
-        <v>6866200</v>
+        <v>7498700</v>
       </c>
       <c r="H49" s="3">
-        <v>6054800</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>42</v>
+        <v>6904200</v>
+      </c>
+      <c r="I49" s="3">
+        <v>6088300</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="K49" s="3"/>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K49" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="L49" s="3"/>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1778,9 +1856,12 @@
       <c r="J50" s="3">
         <v>0</v>
       </c>
-      <c r="K50" s="3"/>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K50" s="3">
+        <v>0</v>
+      </c>
+      <c r="L50" s="3"/>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1805,36 +1886,42 @@
       <c r="J51" s="3">
         <v>0</v>
       </c>
-      <c r="K51" s="3"/>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K51" s="3">
+        <v>0</v>
+      </c>
+      <c r="L51" s="3"/>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2697200</v>
+        <v>2844900</v>
       </c>
       <c r="E52" s="3">
-        <v>2593900</v>
+        <v>2712100</v>
       </c>
       <c r="F52" s="3">
-        <v>3026500</v>
+        <v>2608200</v>
       </c>
       <c r="G52" s="3">
-        <v>2667500</v>
+        <v>3043300</v>
       </c>
       <c r="H52" s="3">
-        <v>11104600</v>
+        <v>2682200</v>
       </c>
       <c r="I52" s="3">
-        <v>7434500</v>
+        <v>11166000</v>
       </c>
       <c r="J52" s="3">
+        <v>7475600</v>
+      </c>
+      <c r="K52" s="3">
         <v>8759700</v>
       </c>
-      <c r="K52" s="3"/>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L52" s="3"/>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1859,36 +1946,42 @@
       <c r="J53" s="3">
         <v>0</v>
       </c>
-      <c r="K53" s="3"/>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K53" s="3">
+        <v>0</v>
+      </c>
+      <c r="L53" s="3"/>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>174916000</v>
+        <v>185610000</v>
       </c>
       <c r="E54" s="3">
-        <v>171381000</v>
+        <v>175884000</v>
       </c>
       <c r="F54" s="3">
-        <v>164793000</v>
+        <v>172329000</v>
       </c>
       <c r="G54" s="3">
-        <v>166570000</v>
+        <v>165704000</v>
       </c>
       <c r="H54" s="3">
-        <v>145078000</v>
+        <v>167491000</v>
       </c>
       <c r="I54" s="3">
-        <v>123264000</v>
+        <v>145880000</v>
       </c>
       <c r="J54" s="3">
+        <v>123945000</v>
+      </c>
+      <c r="K54" s="3">
         <v>106560000</v>
       </c>
-      <c r="K54" s="3"/>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L54" s="3"/>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1900,8 +1993,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1913,170 +2007,189 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>9533500</v>
+        <v>9599600</v>
       </c>
       <c r="E57" s="3">
-        <v>9160300</v>
+        <v>9776700</v>
       </c>
       <c r="F57" s="3">
-        <v>8692900</v>
+        <v>9211000</v>
       </c>
       <c r="G57" s="3">
-        <v>9036300</v>
+        <v>8741000</v>
       </c>
       <c r="H57" s="3">
-        <v>18126400</v>
+        <v>9086200</v>
       </c>
       <c r="I57" s="3">
-        <v>8931600</v>
+        <v>18226700</v>
       </c>
       <c r="J57" s="3">
+        <v>8981000</v>
+      </c>
+      <c r="K57" s="3">
         <v>17518500</v>
       </c>
-      <c r="K57" s="3"/>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L57" s="3"/>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>26372000</v>
+        <v>28986000</v>
       </c>
       <c r="E58" s="3">
-        <v>25193800</v>
+        <v>26517900</v>
       </c>
       <c r="F58" s="3">
-        <v>25218200</v>
+        <v>25333200</v>
       </c>
       <c r="G58" s="3">
-        <v>25615400</v>
+        <v>25357600</v>
       </c>
       <c r="H58" s="3">
-        <v>47417000</v>
+        <v>25757100</v>
       </c>
       <c r="I58" s="3">
-        <v>19737400</v>
+        <v>47679300</v>
       </c>
       <c r="J58" s="3">
+        <v>19846600</v>
+      </c>
+      <c r="K58" s="3">
         <v>33922500</v>
       </c>
-      <c r="K58" s="3"/>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L58" s="3"/>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>14936300</v>
+        <v>15782800</v>
       </c>
       <c r="E59" s="3">
-        <v>14722600</v>
+        <v>14828500</v>
       </c>
       <c r="F59" s="3">
-        <v>15540900</v>
+        <v>14804000</v>
       </c>
       <c r="G59" s="3">
-        <v>13269900</v>
+        <v>15626800</v>
       </c>
       <c r="H59" s="3">
-        <v>11453600</v>
+        <v>13343300</v>
       </c>
       <c r="I59" s="3">
-        <v>8295500</v>
+        <v>11517000</v>
       </c>
       <c r="J59" s="3">
+        <v>8341400</v>
+      </c>
+      <c r="K59" s="3">
         <v>13281100</v>
       </c>
-      <c r="K59" s="3"/>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L59" s="3"/>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>50841900</v>
+        <v>54368400</v>
       </c>
       <c r="E60" s="3">
-        <v>49076700</v>
+        <v>51123100</v>
       </c>
       <c r="F60" s="3">
-        <v>49452000</v>
+        <v>49348200</v>
       </c>
       <c r="G60" s="3">
-        <v>47921500</v>
+        <v>49725500</v>
       </c>
       <c r="H60" s="3">
-        <v>42956300</v>
+        <v>48186600</v>
       </c>
       <c r="I60" s="3">
-        <v>36964600</v>
+        <v>43193900</v>
       </c>
       <c r="J60" s="3">
+        <v>37169000</v>
+      </c>
+      <c r="K60" s="3">
         <v>32361000</v>
       </c>
-      <c r="K60" s="3"/>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L60" s="3"/>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>35633500</v>
+        <v>38232800</v>
       </c>
       <c r="E61" s="3">
-        <v>36787700</v>
+        <v>35830500</v>
       </c>
       <c r="F61" s="3">
-        <v>34210800</v>
+        <v>36991100</v>
       </c>
       <c r="G61" s="3">
-        <v>36046300</v>
+        <v>34400000</v>
       </c>
       <c r="H61" s="3">
-        <v>29809400</v>
+        <v>36245700</v>
       </c>
       <c r="I61" s="3">
-        <v>24506000</v>
+        <v>29974300</v>
       </c>
       <c r="J61" s="3">
+        <v>24641600</v>
+      </c>
+      <c r="K61" s="3">
         <v>20204400</v>
       </c>
-      <c r="K61" s="3"/>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L61" s="3"/>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>14004900</v>
+        <v>15145600</v>
       </c>
       <c r="E62" s="3">
-        <v>17087600</v>
+        <v>14082400</v>
       </c>
       <c r="F62" s="3">
-        <v>17562700</v>
+        <v>17182100</v>
       </c>
       <c r="G62" s="3">
-        <v>15861000</v>
+        <v>17659800</v>
       </c>
       <c r="H62" s="3">
-        <v>27151100</v>
+        <v>15948800</v>
       </c>
       <c r="I62" s="3">
-        <v>14736000</v>
+        <v>27301300</v>
       </c>
       <c r="J62" s="3">
+        <v>14817500</v>
+      </c>
+      <c r="K62" s="3">
         <v>26149500</v>
       </c>
-      <c r="K62" s="3"/>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L62" s="3"/>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2101,9 +2214,12 @@
       <c r="J63" s="3">
         <v>0</v>
       </c>
-      <c r="K63" s="3"/>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K63" s="3">
+        <v>0</v>
+      </c>
+      <c r="L63" s="3"/>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2128,9 +2244,12 @@
       <c r="J64" s="3">
         <v>0</v>
       </c>
-      <c r="K64" s="3"/>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K64" s="3">
+        <v>0</v>
+      </c>
+      <c r="L64" s="3"/>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2155,36 +2274,42 @@
       <c r="J65" s="3">
         <v>0</v>
       </c>
-      <c r="K65" s="3"/>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K65" s="3">
+        <v>0</v>
+      </c>
+      <c r="L65" s="3"/>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>103197000</v>
+        <v>110456000</v>
       </c>
       <c r="E66" s="3">
-        <v>105432000</v>
+        <v>103768000</v>
       </c>
       <c r="F66" s="3">
-        <v>103670000</v>
+        <v>106015000</v>
       </c>
       <c r="G66" s="3">
-        <v>102308000</v>
+        <v>104243000</v>
       </c>
       <c r="H66" s="3">
-        <v>87804700</v>
+        <v>102873000</v>
       </c>
       <c r="I66" s="3">
-        <v>77670400</v>
+        <v>88290300</v>
       </c>
       <c r="J66" s="3">
+        <v>78100000</v>
+      </c>
+      <c r="K66" s="3">
         <v>66854200</v>
       </c>
-      <c r="K66" s="3"/>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L66" s="3"/>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2196,8 +2321,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2222,9 +2348,12 @@
       <c r="J68" s="3">
         <v>0</v>
       </c>
-      <c r="K68" s="3"/>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K68" s="3">
+        <v>0</v>
+      </c>
+      <c r="L68" s="3"/>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2249,9 +2378,12 @@
       <c r="J69" s="3">
         <v>0</v>
       </c>
-      <c r="K69" s="3"/>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K69" s="3">
+        <v>0</v>
+      </c>
+      <c r="L69" s="3"/>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2276,9 +2408,12 @@
       <c r="J70" s="3">
         <v>0</v>
       </c>
-      <c r="K70" s="3"/>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3"/>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2303,36 +2438,42 @@
       <c r="J71" s="3">
         <v>0</v>
       </c>
-      <c r="K71" s="3"/>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K71" s="3">
+        <v>0</v>
+      </c>
+      <c r="L71" s="3"/>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>68806400</v>
+        <v>72480400</v>
       </c>
       <c r="E72" s="3">
-        <v>60684600</v>
+        <v>69187000</v>
       </c>
       <c r="F72" s="3">
-        <v>55996600</v>
+        <v>61020200</v>
       </c>
       <c r="G72" s="3">
-        <v>54995500</v>
+        <v>56306300</v>
       </c>
       <c r="H72" s="3">
-        <v>111301000</v>
+        <v>55299700</v>
       </c>
       <c r="I72" s="3">
-        <v>54685100</v>
+        <v>111917000</v>
       </c>
       <c r="J72" s="3">
+        <v>54987500</v>
+      </c>
+      <c r="K72" s="3">
         <v>104637000</v>
       </c>
-      <c r="K72" s="3"/>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L72" s="3"/>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2357,9 +2498,12 @@
       <c r="J73" s="3">
         <v>0</v>
       </c>
-      <c r="K73" s="3"/>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K73" s="3">
+        <v>0</v>
+      </c>
+      <c r="L73" s="3"/>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2384,9 +2528,12 @@
       <c r="J74" s="3">
         <v>0</v>
       </c>
-      <c r="K74" s="3"/>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K74" s="3">
+        <v>0</v>
+      </c>
+      <c r="L74" s="3"/>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2411,36 +2558,42 @@
       <c r="J75" s="3">
         <v>0</v>
       </c>
-      <c r="K75" s="3"/>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K75" s="3">
+        <v>0</v>
+      </c>
+      <c r="L75" s="3"/>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>71719200</v>
+        <v>75153600</v>
       </c>
       <c r="E76" s="3">
-        <v>65949500</v>
+        <v>72115900</v>
       </c>
       <c r="F76" s="3">
-        <v>61123400</v>
+        <v>66314200</v>
       </c>
       <c r="G76" s="3">
-        <v>64262000</v>
+        <v>61461400</v>
       </c>
       <c r="H76" s="3">
-        <v>57273200</v>
+        <v>64617400</v>
       </c>
       <c r="I76" s="3">
-        <v>45593200</v>
+        <v>57590000</v>
       </c>
       <c r="J76" s="3">
+        <v>45845400</v>
+      </c>
+      <c r="K76" s="3">
         <v>39705700</v>
       </c>
-      <c r="K76" s="3"/>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L76" s="3"/>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2465,68 +2618,77 @@
       <c r="J77" s="3">
         <v>0</v>
       </c>
-      <c r="K77" s="3"/>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K77" s="3">
+        <v>0</v>
+      </c>
+      <c r="L77" s="3"/>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43555</v>
+      </c>
+      <c r="E80" s="2">
         <v>43190</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>42825</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42460</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42094</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>41729</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41364</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>40999</v>
       </c>
-      <c r="K80" s="2"/>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L80" s="2"/>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>9576400</v>
+        <v>5547800</v>
       </c>
       <c r="E81" s="3">
-        <v>5573800</v>
+        <v>9629400</v>
       </c>
       <c r="F81" s="3">
-        <v>3114600</v>
+        <v>5604600</v>
       </c>
       <c r="G81" s="3">
-        <v>4605300</v>
+        <v>3131800</v>
       </c>
       <c r="H81" s="3">
-        <v>6844900</v>
+        <v>4630800</v>
       </c>
       <c r="I81" s="3">
-        <v>3319000</v>
+        <v>6882700</v>
       </c>
       <c r="J81" s="3">
+        <v>3337400</v>
+      </c>
+      <c r="K81" s="3">
         <v>1911800</v>
       </c>
-      <c r="K81" s="3"/>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L81" s="3"/>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2538,35 +2700,39 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>6446400</v>
+        <v>6560200</v>
       </c>
       <c r="E83" s="3">
-        <v>6095900</v>
+        <v>6482000</v>
       </c>
       <c r="F83" s="3">
-        <v>5972900</v>
+        <v>6129700</v>
       </c>
       <c r="G83" s="3">
-        <v>5652100</v>
+        <v>6005900</v>
       </c>
       <c r="H83" s="3">
-        <v>5316700</v>
+        <v>5683300</v>
       </c>
       <c r="I83" s="3">
-        <v>5337800</v>
+        <v>5346100</v>
       </c>
       <c r="J83" s="3">
+        <v>5367400</v>
+      </c>
+      <c r="K83" s="3">
         <v>5016000</v>
       </c>
-      <c r="K83" s="3"/>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L83" s="3"/>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2591,9 +2757,12 @@
       <c r="J84" s="3">
         <v>0</v>
       </c>
-      <c r="K84" s="3"/>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K84" s="3">
+        <v>0</v>
+      </c>
+      <c r="L84" s="3"/>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2618,9 +2787,12 @@
       <c r="J85" s="3">
         <v>0</v>
       </c>
-      <c r="K85" s="3"/>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K85" s="3">
+        <v>0</v>
+      </c>
+      <c r="L85" s="3"/>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2645,9 +2817,12 @@
       <c r="J86" s="3">
         <v>0</v>
       </c>
-      <c r="K86" s="3"/>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K86" s="3">
+        <v>0</v>
+      </c>
+      <c r="L86" s="3"/>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2672,9 +2847,12 @@
       <c r="J87" s="3">
         <v>0</v>
       </c>
-      <c r="K87" s="3"/>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K87" s="3">
+        <v>0</v>
+      </c>
+      <c r="L87" s="3"/>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2699,36 +2877,42 @@
       <c r="J88" s="3">
         <v>0</v>
       </c>
-      <c r="K88" s="3"/>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K88" s="3">
+        <v>0</v>
+      </c>
+      <c r="L88" s="3"/>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>8928500</v>
+        <v>7053700</v>
       </c>
       <c r="E89" s="3">
-        <v>8001100</v>
+        <v>8977900</v>
       </c>
       <c r="F89" s="3">
-        <v>12574600</v>
+        <v>8045300</v>
       </c>
       <c r="G89" s="3">
-        <v>9224500</v>
+        <v>12644100</v>
       </c>
       <c r="H89" s="3">
-        <v>4059900</v>
+        <v>9275500</v>
       </c>
       <c r="I89" s="3">
-        <v>7238700</v>
+        <v>4082400</v>
       </c>
       <c r="J89" s="3">
+        <v>7278800</v>
+      </c>
+      <c r="K89" s="3">
         <v>6884300</v>
       </c>
-      <c r="K89" s="3"/>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L89" s="3"/>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2740,35 +2924,39 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-3756700</v>
+        <v>-3824800</v>
       </c>
       <c r="E91" s="3">
-        <v>-4467000</v>
+        <v>-3777500</v>
       </c>
       <c r="F91" s="3">
-        <v>-5742000</v>
+        <v>-4491700</v>
       </c>
       <c r="G91" s="3">
-        <v>-5859800</v>
+        <v>-5773700</v>
       </c>
       <c r="H91" s="3">
-        <v>-23687300</v>
+        <v>-5892200</v>
       </c>
       <c r="I91" s="3">
-        <v>-12836800</v>
+        <v>-23818300</v>
       </c>
       <c r="J91" s="3">
+        <v>-12907800</v>
+      </c>
+      <c r="K91" s="3">
         <v>-9772100</v>
       </c>
-      <c r="K91" s="3"/>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L91" s="3"/>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2793,9 +2981,12 @@
       <c r="J92" s="3">
         <v>0</v>
       </c>
-      <c r="K92" s="3"/>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K92" s="3">
+        <v>0</v>
+      </c>
+      <c r="L92" s="3"/>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2820,36 +3011,42 @@
       <c r="J93" s="3">
         <v>0</v>
       </c>
-      <c r="K93" s="3"/>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K93" s="3">
+        <v>0</v>
+      </c>
+      <c r="L93" s="3"/>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-5560600</v>
+        <v>-5250000</v>
       </c>
       <c r="E94" s="3">
-        <v>-5881600</v>
+        <v>-5591400</v>
       </c>
       <c r="F94" s="3">
-        <v>-7910700</v>
+        <v>-5914100</v>
       </c>
       <c r="G94" s="3">
-        <v>-7598100</v>
+        <v>-7954400</v>
       </c>
       <c r="H94" s="3">
-        <v>-8326000</v>
+        <v>-7640100</v>
       </c>
       <c r="I94" s="3">
-        <v>-9670600</v>
+        <v>-8372100</v>
       </c>
       <c r="J94" s="3">
+        <v>-9724100</v>
+      </c>
+      <c r="K94" s="3">
         <v>-6084500</v>
       </c>
-      <c r="K94" s="3"/>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L94" s="3"/>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2861,35 +3058,39 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1575000</v>
+        <v>-1765900</v>
       </c>
       <c r="E96" s="3">
-        <v>-1466300</v>
+        <v>-1583700</v>
       </c>
       <c r="F96" s="3">
-        <v>-1433800</v>
+        <v>-1474400</v>
       </c>
       <c r="G96" s="3">
-        <v>-1433800</v>
+        <v>-1441700</v>
       </c>
       <c r="H96" s="3">
-        <v>-1287100</v>
+        <v>-1441700</v>
       </c>
       <c r="I96" s="3">
-        <v>-1173100</v>
+        <v>-1294200</v>
       </c>
       <c r="J96" s="3">
+        <v>-1179600</v>
+      </c>
+      <c r="K96" s="3">
         <v>-977600</v>
       </c>
-      <c r="K96" s="3"/>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L96" s="3"/>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -2914,9 +3115,12 @@
       <c r="J97" s="3">
         <v>0</v>
       </c>
-      <c r="K97" s="3"/>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K97" s="3">
+        <v>0</v>
+      </c>
+      <c r="L97" s="3"/>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -2941,9 +3145,12 @@
       <c r="J98" s="3">
         <v>0</v>
       </c>
-      <c r="K98" s="3"/>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K98" s="3">
+        <v>0</v>
+      </c>
+      <c r="L98" s="3"/>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -2968,88 +3175,100 @@
       <c r="J99" s="3">
         <v>0</v>
       </c>
-      <c r="K99" s="3"/>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K99" s="3">
+        <v>0</v>
+      </c>
+      <c r="L99" s="3"/>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1576000</v>
+        <v>208400</v>
       </c>
       <c r="E100" s="3">
-        <v>1043400</v>
+        <v>-1584700</v>
       </c>
       <c r="F100" s="3">
-        <v>-861500</v>
+        <v>1049200</v>
       </c>
       <c r="G100" s="3">
-        <v>112900</v>
+        <v>-866300</v>
       </c>
       <c r="H100" s="3">
-        <v>3213300</v>
+        <v>113500</v>
       </c>
       <c r="I100" s="3">
-        <v>1080900</v>
+        <v>3231100</v>
       </c>
       <c r="J100" s="3">
+        <v>1086900</v>
+      </c>
+      <c r="K100" s="3">
         <v>-616800</v>
       </c>
-      <c r="K100" s="3"/>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L100" s="3"/>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-431300</v>
+        <v>147900</v>
       </c>
       <c r="E101" s="3">
+        <v>-433700</v>
+      </c>
+      <c r="F101" s="3">
         <v>-12300</v>
       </c>
-      <c r="F101" s="3">
-        <v>-1219400</v>
-      </c>
       <c r="G101" s="3">
-        <v>775200</v>
+        <v>-1226200</v>
       </c>
       <c r="H101" s="3">
-        <v>356400</v>
+        <v>779500</v>
       </c>
       <c r="I101" s="3">
-        <v>980500</v>
+        <v>358400</v>
       </c>
       <c r="J101" s="3">
+        <v>985900</v>
+      </c>
+      <c r="K101" s="3">
         <v>-471400</v>
       </c>
-      <c r="K101" s="3"/>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L101" s="3"/>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1360600</v>
+        <v>2160100</v>
       </c>
       <c r="E102" s="3">
-        <v>3150600</v>
+        <v>1368200</v>
       </c>
       <c r="F102" s="3">
-        <v>2583000</v>
+        <v>3168000</v>
       </c>
       <c r="G102" s="3">
-        <v>2514400</v>
+        <v>2597200</v>
       </c>
       <c r="H102" s="3">
-        <v>-696300</v>
+        <v>2528300</v>
       </c>
       <c r="I102" s="3">
-        <v>-370500</v>
+        <v>-700200</v>
       </c>
       <c r="J102" s="3">
+        <v>-372600</v>
+      </c>
+      <c r="K102" s="3">
         <v>-288500</v>
       </c>
-      <c r="K102" s="3"/>
+      <c r="L102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
